--- a/Excel/AdminExcel/BranchController.xlsx
+++ b/Excel/AdminExcel/BranchController.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\outsource.minura\API_Testing\api-automation\Excel\AdminExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44AC8DA-75C0-42A0-A478-E85D87068EFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D11F2-5439-4E37-AB0D-118E3CC6F84F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4654,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9514E1E6-A7D0-45FA-81BE-1E9616E27D18}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
